--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ABF83A-526E-48FE-83B1-48AED2BA146E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8444F-10F3-4910-A414-91D08C187CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -235,11 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
-  <si>
-    <t>dy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>tp</t>
   </si>
@@ -333,100 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일2</t>
-  </si>
-  <si>
-    <t>일3</t>
-  </si>
-  <si>
-    <t>일4</t>
-  </si>
-  <si>
-    <t>일5</t>
-  </si>
-  <si>
-    <t>일6</t>
-  </si>
-  <si>
-    <t>일7</t>
-  </si>
-  <si>
-    <t>일8</t>
-  </si>
-  <si>
-    <t>일9</t>
-  </si>
-  <si>
-    <t>일10</t>
-  </si>
-  <si>
-    <t>일11</t>
-  </si>
-  <si>
-    <t>일12</t>
-  </si>
-  <si>
-    <t>일13</t>
-  </si>
-  <si>
-    <t>일14</t>
-  </si>
-  <si>
-    <t>일15</t>
-  </si>
-  <si>
-    <t>일16</t>
-  </si>
-  <si>
-    <t>일17</t>
-  </si>
-  <si>
-    <t>일18</t>
-  </si>
-  <si>
-    <t>일19</t>
-  </si>
-  <si>
-    <t>일20</t>
-  </si>
-  <si>
-    <t>일21</t>
-  </si>
-  <si>
-    <t>일22</t>
-  </si>
-  <si>
-    <t>일23</t>
-  </si>
-  <si>
-    <t>일24</t>
-  </si>
-  <si>
-    <t>일25</t>
-  </si>
-  <si>
-    <t>일26</t>
-  </si>
-  <si>
-    <t>일27</t>
-  </si>
-  <si>
-    <t>일28</t>
-  </si>
-  <si>
-    <t>일29</t>
-  </si>
-  <si>
-    <t>일30</t>
-  </si>
-  <si>
-    <t>일31</t>
-  </si>
-  <si>
     <t>ny</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +346,30 @@
   </si>
   <si>
     <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -880,180 +806,107 @@
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="36" width="1.625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="4.625" customWidth="1"/>
-    <col min="38" max="38" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="4.875" customWidth="1"/>
-    <col min="40" max="40" width="5.125" customWidth="1"/>
-    <col min="43" max="43" width="5.125" customWidth="1"/>
-    <col min="44" max="46" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="9" collapsed="1"/>
-    <col min="51" max="51" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="9" collapsed="1"/>
-    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="4.875" customWidth="1"/>
+    <col min="14" max="14" width="5.125" customWidth="1"/>
+    <col min="17" max="17" width="5.125" customWidth="1"/>
+    <col min="18" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="22" max="22" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" collapsed="1"/>
+    <col min="25" max="25" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" collapsed="1"/>
+    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="27" customHeight="1">
+    <row r="1" spans="1:28" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>16</v>
+      <c r="AB1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:28">
       <c r="A2" t="str">
         <f ca="1">IF(ISBLANK(B2),"",
 VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
@@ -1061,216 +914,108 @@
         <v>ny</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"["&amp;DAY(F2)
-&amp;IF(LEN(G2)=0,"",","&amp;DAY(G2))&amp;IF(LEN(H2)=0,"",","&amp;DAY(H2))&amp;IF(LEN(I2)=0,"",","&amp;DAY(I2))&amp;IF(LEN(J2)=0,"",","&amp;DAY(J2))&amp;IF(LEN(K2)=0,"",","&amp;DAY(K2))
-&amp;IF(LEN(L2)=0,"",","&amp;DAY(L2))&amp;IF(LEN(M2)=0,"",","&amp;DAY(M2))&amp;IF(LEN(N2)=0,"",","&amp;DAY(N2))&amp;IF(LEN(O2)=0,"",","&amp;DAY(O2))&amp;IF(LEN(P2)=0,"",","&amp;DAY(P2))
-&amp;IF(LEN(Q2)=0,"",","&amp;DAY(Q2))&amp;IF(LEN(R2)=0,"",","&amp;DAY(R2))&amp;IF(LEN(S2)=0,"",","&amp;DAY(S2))&amp;IF(LEN(T2)=0,"",","&amp;DAY(T2))&amp;IF(LEN(U2)=0,"",","&amp;DAY(U2))
-&amp;IF(LEN(V2)=0,"",","&amp;DAY(V2))&amp;IF(LEN(W2)=0,"",","&amp;DAY(W2))&amp;IF(LEN(X2)=0,"",","&amp;DAY(X2))&amp;IF(LEN(Y2)=0,"",","&amp;DAY(Y2))&amp;IF(LEN(Z2)=0,"",","&amp;DAY(Z2))
-&amp;IF(LEN(AA2)=0,"",","&amp;DAY(AA2))&amp;IF(LEN(AB2)=0,"",","&amp;DAY(AB2))&amp;IF(LEN(AC2)=0,"",","&amp;DAY(AC2))&amp;IF(LEN(AD2)=0,"",","&amp;DAY(AD2))&amp;IF(LEN(AE2)=0,"",","&amp;DAY(AE2))
-&amp;IF(LEN(AF2)=0,"",","&amp;DAY(AF2))&amp;IF(LEN(AG2)=0,"",","&amp;DAY(AG2))&amp;IF(LEN(AH2)=0,"",","&amp;DAY(AH2))&amp;IF(LEN(AI2)=0,"",","&amp;DAY(AI2))&amp;IF(LEN(AJ2)=0,"",","&amp;DAY(AJ2))
-&amp;"]"</f>
-        <v>[10,11,12,13,14,15,16,17,18]</v>
-      </c>
-      <c r="D2" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <f>YEAR(I2)</f>
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <f>MONTH(I2)</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>DAY(I2)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>YEAR(J2)</f>
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <f>MONTH(J2)</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>DAY(J2)</f>
+        <v>18</v>
+      </c>
+      <c r="I2" s="4">
         <v>43961</v>
       </c>
-      <c r="E2" s="4">
+      <c r="J2" s="4">
         <v>43969</v>
       </c>
-      <c r="F2" s="4">
-        <f>D2</f>
-        <v>43961</v>
-      </c>
-      <c r="G2" s="4">
-        <f>IF(LEN(F2)=0,"",
-IF(F2+1&gt;$E2,"",F2+1))</f>
-        <v>43962</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:AJ4" si="0">IF(LEN(G2)=0,"",
-IF(G2+1&gt;$E2,"",G2+1))</f>
-        <v>43963</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" si="0"/>
-        <v>43964</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>43965</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>43966</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>43967</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>43968</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>43969</v>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AH2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ2" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK2" t="str">
-        <f ca="1">IF(ISBLANK(AL2),"",
-VLOOKUP(AL2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="K2" t="str">
+        <f ca="1">IF(ISBLANK(L2),"",
+VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="AL2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN2">
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="O2" t="str">
         <f ca="1">"Mn_"&amp;A2</f>
         <v>Mn_ny</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="P2" t="str">
         <f ca="1">"Md_"&amp;A2</f>
         <v>Md_ny</v>
       </c>
-      <c r="AQ2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="AR2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="AS2" t="str">
-        <f ca="1">AT2</f>
-        <v>{"id":"ny","dy":[10,11,12,13,14,15,16,17,18],"tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
-      </c>
-      <c r="AT2" t="str">
-        <f ca="1">IF(AR2&lt;&gt;1,"",
+      <c r="S2" t="str">
+        <f ca="1">T2</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+      </c>
+      <c r="T2" t="str">
+        <f ca="1">IF(R2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C2
-&amp;","""&amp;AK$1&amp;""":"""&amp;AK2&amp;""""
-&amp;","""&amp;AM$1&amp;""":"""&amp;AM2&amp;""""
-&amp;","""&amp;AN$1&amp;""":"&amp;AN2
-&amp;","""&amp;AO$1&amp;""":"""&amp;AO2&amp;""""
-&amp;","""&amp;AP$1&amp;""":"""&amp;AP2&amp;""""
-&amp;","""&amp;AQ$1&amp;""":"&amp;AQ2&amp;"}")</f>
-        <v>{"id":"ny","dy":[10,11,12,13,14,15,16,17,18],"tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB2" t="str">
+&amp;","""&amp;C$1&amp;""":"""&amp;C2&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E2&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F2&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H2&amp;""""
+&amp;","""&amp;K$1&amp;""":"""&amp;K2&amp;""""
+&amp;","""&amp;M$1&amp;""":"""&amp;M2&amp;""""
+&amp;","""&amp;N$1&amp;""":"&amp;N2
+&amp;","""&amp;O$1&amp;""":"""&amp;O2&amp;""""
+&amp;","""&amp;P$1&amp;""":"""&amp;P2&amp;""""
+&amp;","""&amp;Q$1&amp;""":"&amp;Q2&amp;"}")</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(AS1,COUNTA(AS:AS)-1,0),1)=",",SUBSTITUTE(OFFSET(AS1,COUNTA(AS:AS)-1,0),",","",1),OFFSET(AS1,COUNTA(AS:AS)-1,0))
+IF(LEFT(OFFSET(S1,COUNTA(S:S)-1,0),1)=",",SUBSTITUTE(OFFSET(S1,COUNTA(S:S)-1,0),",","",1),OFFSET(S1,COUNTA(S:S)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ny","dy":[10,11,12,13,14,15,16,17,18],"tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","dy":[13,14,15,16],"tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","dy":[21,22],"tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}]</v>
+        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"22","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}]</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:28">
       <c r="A3" t="str">
         <f ca="1">IF(ISBLANK(B3),"",
 VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
@@ -1278,209 +1023,102 @@
         <v>ev</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"["&amp;DAY(F3)
-&amp;IF(LEN(G3)=0,"",","&amp;DAY(G3))&amp;IF(LEN(H3)=0,"",","&amp;DAY(H3))&amp;IF(LEN(I3)=0,"",","&amp;DAY(I3))&amp;IF(LEN(J3)=0,"",","&amp;DAY(J3))&amp;IF(LEN(K3)=0,"",","&amp;DAY(K3))
-&amp;IF(LEN(L3)=0,"",","&amp;DAY(L3))&amp;IF(LEN(M3)=0,"",","&amp;DAY(M3))&amp;IF(LEN(N3)=0,"",","&amp;DAY(N3))&amp;IF(LEN(O3)=0,"",","&amp;DAY(O3))&amp;IF(LEN(P3)=0,"",","&amp;DAY(P3))
-&amp;IF(LEN(Q3)=0,"",","&amp;DAY(Q3))&amp;IF(LEN(R3)=0,"",","&amp;DAY(R3))&amp;IF(LEN(S3)=0,"",","&amp;DAY(S3))&amp;IF(LEN(T3)=0,"",","&amp;DAY(T3))&amp;IF(LEN(U3)=0,"",","&amp;DAY(U3))
-&amp;IF(LEN(V3)=0,"",","&amp;DAY(V3))&amp;IF(LEN(W3)=0,"",","&amp;DAY(W3))&amp;IF(LEN(X3)=0,"",","&amp;DAY(X3))&amp;IF(LEN(Y3)=0,"",","&amp;DAY(Y3))&amp;IF(LEN(Z3)=0,"",","&amp;DAY(Z3))
-&amp;IF(LEN(AA3)=0,"",","&amp;DAY(AA3))&amp;IF(LEN(AB3)=0,"",","&amp;DAY(AB3))&amp;IF(LEN(AC3)=0,"",","&amp;DAY(AC3))&amp;IF(LEN(AD3)=0,"",","&amp;DAY(AD3))&amp;IF(LEN(AE3)=0,"",","&amp;DAY(AE3))
-&amp;IF(LEN(AF3)=0,"",","&amp;DAY(AF3))&amp;IF(LEN(AG3)=0,"",","&amp;DAY(AG3))&amp;IF(LEN(AH3)=0,"",","&amp;DAY(AH3))&amp;IF(LEN(AI3)=0,"",","&amp;DAY(AI3))&amp;IF(LEN(AJ3)=0,"",","&amp;DAY(AJ3))
-&amp;"]"</f>
-        <v>[13,14,15,16]</v>
-      </c>
-      <c r="D3" s="4">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="0">YEAR(I3)</f>
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="1">MONTH(I3)</f>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="2">DAY(I3)</f>
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="3">YEAR(J3)</f>
+        <v>2020</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="4">MONTH(J3)</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="5">DAY(J3)</f>
+        <v>16</v>
+      </c>
+      <c r="I3" s="4">
         <v>43964</v>
       </c>
-      <c r="E3" s="4">
+      <c r="J3" s="4">
         <v>43967</v>
       </c>
-      <c r="F3" s="4">
-        <f>D3</f>
-        <v>43964</v>
-      </c>
-      <c r="G3" s="4">
-        <f>IF(LEN(F3)=0,"",
-IF(F3+1&gt;$E3,"",F3+1))</f>
-        <v>43965</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" si="0"/>
-        <v>43966</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" si="0"/>
-        <v>43967</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AH3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK3" t="str">
-        <f ca="1">IF(ISBLANK(AL3),"",
-VLOOKUP(AL3,OFFSET(INDIRECT("$A:$B"),0,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="K3" t="str">
+        <f ca="1">IF(ISBLANK(L3),"",
+VLOOKUP(L3,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>be</v>
       </c>
-      <c r="AL3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM3">
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="AN3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="O3" t="str">
         <f ca="1">"Mn_"&amp;A3</f>
         <v>Mn_ev</v>
       </c>
-      <c r="AP3" t="str">
+      <c r="P3" t="str">
         <f ca="1">"Md_"&amp;A3</f>
         <v>Md_ev</v>
       </c>
-      <c r="AQ3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="AR3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="AS3" t="str">
-        <f t="shared" ref="AS3" ca="1" si="1">AS2&amp;IF(LEN(AT3)=0,"",","&amp;AT3)</f>
-        <v>{"id":"ny","dy":[10,11,12,13,14,15,16,17,18],"tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","dy":[13,14,15,16],"tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="AT3" t="str">
-        <f ca="1">IF(AR3&lt;&gt;1,"",
+      <c r="S3" t="str">
+        <f t="shared" ref="S3" ca="1" si="6">S2&amp;IF(LEN(T3)=0,"",","&amp;T3)</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T4" ca="1" si="7">IF(R3&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C3
-&amp;","""&amp;AK$1&amp;""":"""&amp;AK3&amp;""""
-&amp;","""&amp;AM$1&amp;""":"""&amp;AM3&amp;""""
-&amp;","""&amp;AN$1&amp;""":"&amp;AN3
-&amp;","""&amp;AO$1&amp;""":"""&amp;AO3&amp;""""
-&amp;","""&amp;AP$1&amp;""":"""&amp;AP3&amp;""""
-&amp;","""&amp;AQ$1&amp;""":"&amp;AQ3&amp;"}")</f>
-        <v>{"id":"ev","dy":[13,14,15,16],"tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>15</v>
+&amp;","""&amp;C$1&amp;""":"""&amp;C3&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E3&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F3&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H3&amp;""""
+&amp;","""&amp;K$1&amp;""":"""&amp;K3&amp;""""
+&amp;","""&amp;M$1&amp;""":"""&amp;M3&amp;""""
+&amp;","""&amp;N$1&amp;""":"&amp;N3
+&amp;","""&amp;O$1&amp;""":"""&amp;O3&amp;""""
+&amp;","""&amp;P$1&amp;""":"""&amp;P3&amp;""""
+&amp;","""&amp;Q$1&amp;""":"&amp;Q3&amp;"}")</f>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:28">
       <c r="A4" t="str">
         <f ca="1">IF(ISBLANK(B4),"",
 VLOOKUP(B4,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
@@ -1488,200 +1126,80 @@
         <v>ev</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="str">
-        <f>"["&amp;DAY(F4)
-&amp;IF(LEN(G4)=0,"",","&amp;DAY(G4))&amp;IF(LEN(H4)=0,"",","&amp;DAY(H4))&amp;IF(LEN(I4)=0,"",","&amp;DAY(I4))&amp;IF(LEN(J4)=0,"",","&amp;DAY(J4))&amp;IF(LEN(K4)=0,"",","&amp;DAY(K4))
-&amp;IF(LEN(L4)=0,"",","&amp;DAY(L4))&amp;IF(LEN(M4)=0,"",","&amp;DAY(M4))&amp;IF(LEN(N4)=0,"",","&amp;DAY(N4))&amp;IF(LEN(O4)=0,"",","&amp;DAY(O4))&amp;IF(LEN(P4)=0,"",","&amp;DAY(P4))
-&amp;IF(LEN(Q4)=0,"",","&amp;DAY(Q4))&amp;IF(LEN(R4)=0,"",","&amp;DAY(R4))&amp;IF(LEN(S4)=0,"",","&amp;DAY(S4))&amp;IF(LEN(T4)=0,"",","&amp;DAY(T4))&amp;IF(LEN(U4)=0,"",","&amp;DAY(U4))
-&amp;IF(LEN(V4)=0,"",","&amp;DAY(V4))&amp;IF(LEN(W4)=0,"",","&amp;DAY(W4))&amp;IF(LEN(X4)=0,"",","&amp;DAY(X4))&amp;IF(LEN(Y4)=0,"",","&amp;DAY(Y4))&amp;IF(LEN(Z4)=0,"",","&amp;DAY(Z4))
-&amp;IF(LEN(AA4)=0,"",","&amp;DAY(AA4))&amp;IF(LEN(AB4)=0,"",","&amp;DAY(AB4))&amp;IF(LEN(AC4)=0,"",","&amp;DAY(AC4))&amp;IF(LEN(AD4)=0,"",","&amp;DAY(AD4))&amp;IF(LEN(AE4)=0,"",","&amp;DAY(AE4))
-&amp;IF(LEN(AF4)=0,"",","&amp;DAY(AF4))&amp;IF(LEN(AG4)=0,"",","&amp;DAY(AG4))&amp;IF(LEN(AH4)=0,"",","&amp;DAY(AH4))&amp;IF(LEN(AI4)=0,"",","&amp;DAY(AI4))&amp;IF(LEN(AJ4)=0,"",","&amp;DAY(AJ4))
-&amp;"]"</f>
-        <v>[21,22]</v>
-      </c>
-      <c r="D4" s="4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="4">
         <v>43972</v>
       </c>
-      <c r="E4" s="4">
+      <c r="J4" s="4">
         <v>43973</v>
       </c>
-      <c r="F4" s="4">
-        <f>D4</f>
-        <v>43972</v>
-      </c>
-      <c r="G4" s="4">
-        <f>IF(LEN(F4)=0,"",
-IF(F4+1&gt;$E4,"",F4+1))</f>
-        <v>43973</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AH4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK4" t="str">
-        <f ca="1">IF(ISBLANK(AL4),"",
-VLOOKUP(AL4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="K4" t="str">
+        <f ca="1">IF(ISBLANK(L4),"",
+VLOOKUP(L4,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="AL4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN4">
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="O4" t="str">
         <f ca="1">"Mn_"&amp;A4</f>
         <v>Mn_ev</v>
       </c>
-      <c r="AP4" t="str">
+      <c r="P4" t="str">
         <f ca="1">"Md_"&amp;A4</f>
         <v>Md_ev</v>
       </c>
-      <c r="AQ4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="AR4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="AS4" t="str">
-        <f t="shared" ref="AS4" ca="1" si="2">AS3&amp;IF(LEN(AT4)=0,"",","&amp;AT4)</f>
-        <v>{"id":"ny","dy":[10,11,12,13,14,15,16,17,18],"tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","dy":[13,14,15,16],"tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","dy":[21,22],"tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="AT4" t="str">
-        <f ca="1">IF(AR4&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A4&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C4
-&amp;","""&amp;AK$1&amp;""":"""&amp;AK4&amp;""""
-&amp;","""&amp;AM$1&amp;""":"""&amp;AM4&amp;""""
-&amp;","""&amp;AN$1&amp;""":"&amp;AN4
-&amp;","""&amp;AO$1&amp;""":"""&amp;AO4&amp;""""
-&amp;","""&amp;AP$1&amp;""":"""&amp;AP4&amp;""""
-&amp;","""&amp;AQ$1&amp;""":"&amp;AQ4&amp;"}")</f>
-        <v>{"id":"ev","dy":[21,22],"tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4" ca="1" si="8">S3&amp;IF(LEN(T4)=0,"",","&amp;T4)</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"22","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"22","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL4 B2:B4" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 B2:B4" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8444F-10F3-4910-A414-91D08C187CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26557BD7-2539-411A-8C97-E16D51B4EE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -795,27 +795,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:BG4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="3.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="4.625" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="4.875" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="4.875" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="5.125" customWidth="1"/>
     <col min="17" max="17" width="5.125" customWidth="1"/>
     <col min="18" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -926,25 +926,25 @@
       </c>
       <c r="E2">
         <f>DAY(I2)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <f>YEAR(J2)</f>
+        <f>YEAR(J2+1)</f>
         <v>2020</v>
       </c>
       <c r="G2">
-        <f>MONTH(J2)</f>
+        <f>MONTH(J2+1)</f>
         <v>5</v>
       </c>
       <c r="H2">
-        <f>DAY(J2)</f>
+        <f>DAY(J2+1)</f>
         <v>18</v>
       </c>
       <c r="I2" s="4">
-        <v>43961</v>
+        <v>43969</v>
       </c>
       <c r="J2" s="4">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="K2" t="str">
         <f ca="1">IF(ISBLANK(L2),"",
@@ -977,7 +977,7 @@
       </c>
       <c r="S2" t="str">
         <f ca="1">T2</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">IF(R2&lt;&gt;1,"",
@@ -994,7 +994,7 @@
 &amp;","""&amp;O$1&amp;""":"""&amp;O2&amp;""""
 &amp;","""&amp;P$1&amp;""":"""&amp;P2&amp;""""
 &amp;","""&amp;Q$1&amp;""":"&amp;Q2&amp;"}")</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="V2" t="s">
         <v>22</v>
@@ -1012,7 +1012,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(S1,COUNTA(S:S)-1,0),1)=",",SUBSTITUTE(OFFSET(S1,COUNTA(S:S)-1,0),",","",1),OFFSET(S1,COUNTA(S:S)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"22","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}]</v>
+        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"23","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}]</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F4" si="3">YEAR(J3)</f>
+        <f t="shared" ref="F3:F4" si="3">YEAR(J3+1)</f>
         <v>2020</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="4">MONTH(J3)</f>
+        <f t="shared" ref="G3:G4" si="4">MONTH(J3+1)</f>
         <v>5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="5">DAY(J3)</f>
-        <v>16</v>
+        <f t="shared" ref="H3:H4" si="5">DAY(J3+1)</f>
+        <v>17</v>
       </c>
       <c r="I3" s="4">
         <v>43964</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3" ca="1" si="6">S2&amp;IF(LEN(T3)=0,"",","&amp;T3)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T4" ca="1" si="7">IF(R3&lt;&gt;1,"",
@@ -1103,7 +1103,7 @@
 &amp;","""&amp;O$1&amp;""":"""&amp;O3&amp;""""
 &amp;","""&amp;P$1&amp;""":"""&amp;P3&amp;""""
 &amp;","""&amp;Q$1&amp;""":"&amp;Q3&amp;"}")</f>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
       <c r="V3" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4">
         <v>43972</v>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="S4" t="str">
         <f t="shared" ref="S4" ca="1" si="8">S3&amp;IF(LEN(T4)=0,"",","&amp;T4)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"10","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"16","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"22","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"23","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"22","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"23","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
     </row>
   </sheetData>
@@ -1204,6 +1204,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26557BD7-2539-411A-8C97-E16D51B4EE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA9D38-35DC-4CDD-B33D-96C52B7C0F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -230,12 +230,311 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A7303149-80DB-41AB-8A09-D685C268BF62}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비어져있으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>못</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메일로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분류되어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>붉은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>티가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타이틀이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>tp</t>
   </si>
@@ -251,9 +550,6 @@
   </si>
   <si>
     <t>재화</t>
-  </si>
-  <si>
-    <t>재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,17 +606,9 @@
     <t>일일 우편</t>
   </si>
   <si>
-    <t>일일 우편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새해 선물</t>
   </si>
   <si>
-    <t>새해 선물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,47 +617,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이날포함이후부터 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이지 않는 우편</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
     <t>ny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
+  </si>
+  <si>
+    <t>업데이트 내역</t>
+  </si>
+  <si>
+    <t>업데이트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검시각참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,6 +790,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -817,96 +1131,106 @@
     <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="4.875" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="5.125" customWidth="1"/>
-    <col min="17" max="17" width="5.125" customWidth="1"/>
-    <col min="18" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" collapsed="1"/>
-    <col min="22" max="22" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" collapsed="1"/>
-    <col min="25" max="25" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" collapsed="1"/>
-    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="18" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="11.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" collapsed="1"/>
+    <col min="24" max="24" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" collapsed="1"/>
+    <col min="27" max="27" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" collapsed="1"/>
+    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="27" customHeight="1">
+    <row r="1" spans="1:30" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" t="s">
-        <v>12</v>
-      </c>
       <c r="AB1" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="A2" t="str">
         <f ca="1">IF(ISBLANK(B2),"",
 VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
@@ -914,7 +1238,7 @@
         <v>ny</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <f>YEAR(I2)</f>
@@ -938,13 +1262,13 @@
       </c>
       <c r="H2">
         <f>DAY(J2+1)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
         <v>43969</v>
       </c>
       <c r="J2" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="K2" t="str">
         <f ca="1">IF(ISBLANK(L2),"",
@@ -953,34 +1277,42 @@
         <v>cu</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2" t="str">
+        <f t="shared" ref="O2:O4" ca="1" si="0">IF(A2&lt;&gt;"un","",24+N2)</f>
+        <v/>
+      </c>
+      <c r="P2" t="str">
         <f ca="1">"Mn_"&amp;A2</f>
         <v>Mn_ny</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f ca="1">"Md_"&amp;A2</f>
         <v>Md_ny</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="7">
+        <f>J2+R2+1</f>
+        <v>43973</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="S2" t="str">
-        <f ca="1">T2</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
-      </c>
-      <c r="T2" t="str">
-        <f ca="1">IF(R2&lt;&gt;1,"",
+      <c r="U2" t="str">
+        <f ca="1">V2</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:V4" ca="1" si="1">IF(T2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
 &amp;","""&amp;C$1&amp;""":"""&amp;C2&amp;""""
 &amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
@@ -988,34 +1320,34 @@
 &amp;","""&amp;F$1&amp;""":"""&amp;F2&amp;""""
 &amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;""""
 &amp;","""&amp;H$1&amp;""":"""&amp;H2&amp;""""
-&amp;","""&amp;K$1&amp;""":"""&amp;K2&amp;""""
-&amp;","""&amp;M$1&amp;""":"""&amp;M2&amp;""""
-&amp;","""&amp;N$1&amp;""":"&amp;N2
-&amp;","""&amp;O$1&amp;""":"""&amp;O2&amp;""""
-&amp;","""&amp;P$1&amp;""":"""&amp;P2&amp;""""
-&amp;","""&amp;Q$1&amp;""":"&amp;Q2&amp;"}")</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
+&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"""&amp;K2&amp;"""")
+&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
+&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
+&amp;IF(LEN(P2)=0,"",","""&amp;P$1&amp;""":"""&amp;P2&amp;"""")
+&amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
+&amp;","""&amp;R$1&amp;""":"&amp;R2&amp;"}")</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" t="str">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(S1,COUNTA(S:S)-1,0),1)=",",SUBSTITUTE(OFFSET(S1,COUNTA(S:S)-1,0),",","",1),OFFSET(S1,COUNTA(S:S)-1,0))
+IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"23","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}]</v>
+        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}]</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3" t="str">
         <f ca="1">IF(ISBLANK(B3),"",
 VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
@@ -1023,30 +1355,30 @@
         <v>ev</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C4" si="0">YEAR(I3)</f>
+        <f t="shared" ref="C3" si="2">YEAR(I3)</f>
         <v>2020</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="1">MONTH(I3)</f>
+        <f t="shared" ref="D3" si="3">MONTH(I3)</f>
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="2">DAY(I3)</f>
+        <f t="shared" ref="E3" si="4">DAY(I3)</f>
         <v>13</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F4" si="3">YEAR(J3+1)</f>
+        <f t="shared" ref="F3" si="5">YEAR(J3+1)</f>
         <v>2020</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="4">MONTH(J3+1)</f>
+        <f t="shared" ref="G3" si="6">MONTH(J3+1)</f>
         <v>5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="5">DAY(J3+1)</f>
+        <f t="shared" ref="H3" si="7">DAY(J3+1)</f>
         <v>17</v>
       </c>
       <c r="I3" s="4">
@@ -1071,89 +1403,84 @@
         <v>1</v>
       </c>
       <c r="O3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="P3" t="str">
         <f ca="1">"Mn_"&amp;A3</f>
         <v>Mn_ev</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f ca="1">"Md_"&amp;A3</f>
         <v>Md_ev</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3">
+      <c r="S3" s="7">
+        <f>J3+R3+1</f>
+        <v>43970</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3" ca="1" si="6">S2&amp;IF(LEN(T3)=0,"",","&amp;T3)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T4" ca="1" si="7">IF(R3&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
-&amp;","""&amp;C$1&amp;""":"""&amp;C3&amp;""""
-&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""""
-&amp;","""&amp;E$1&amp;""":"""&amp;E3&amp;""""
-&amp;","""&amp;F$1&amp;""":"""&amp;F3&amp;""""
-&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;""""
-&amp;","""&amp;H$1&amp;""":"""&amp;H3&amp;""""
-&amp;","""&amp;K$1&amp;""":"""&amp;K3&amp;""""
-&amp;","""&amp;M$1&amp;""":"""&amp;M3&amp;""""
-&amp;","""&amp;N$1&amp;""":"&amp;N3
-&amp;","""&amp;O$1&amp;""":"""&amp;O3&amp;""""
-&amp;","""&amp;P$1&amp;""":"""&amp;P3&amp;""""
-&amp;","""&amp;Q$1&amp;""":"&amp;Q3&amp;"}")</f>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3" ca="1" si="8">U2&amp;IF(LEN(V3)=0,"",","&amp;V3)</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
+      <c r="X3" t="s">
+        <v>32</v>
       </c>
       <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" t="s">
-        <v>14</v>
+      <c r="AB3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" t="str">
         <f ca="1">IF(ISBLANK(B4),"",
 VLOOKUP(B4,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>ev</v>
+        <v>up</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C5" si="9">YEAR(I4)</f>
         <v>2020</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D4:D5" si="10">MONTH(I4)</f>
         <v>5</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" ref="E4:E5" si="11">DAY(I4)</f>
+        <v>16</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F4:F5" si="12">YEAR(J4+1)</f>
         <v>2020</v>
       </c>
       <c r="G4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G4:G5" si="13">MONTH(J4+1)</f>
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H4:H5" si="14">DAY(J4+1)</f>
         <v>23</v>
       </c>
       <c r="I4" s="4">
-        <v>43972</v>
+        <v>43967</v>
       </c>
       <c r="J4" s="4">
         <v>43973</v>
@@ -1162,44 +1489,140 @@
         <f ca="1">IF(ISBLANK(L4),"",
 VLOOKUP(L4,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f ca="1">"Mn_"&amp;A4</f>
+        <v>Mn_up</v>
+      </c>
+      <c r="Q4" t="str">
+        <f ca="1">"Md_"&amp;A4</f>
+        <v>Md_up</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="7">
+        <f>J4+R4+1</f>
+        <v>43976</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U5" ca="1" si="15">U3&amp;IF(LEN(V4)=0,"",","&amp;V4)</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2}</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2}</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" t="str">
+        <f ca="1">IF(ISBLANK(B5),"",
+VLOOKUP(B5,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>un</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="9"/>
+        <v>2020</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="12"/>
+        <v>2020</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="N4">
+      <c r="I5" s="4">
+        <v>43964</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43967</v>
+      </c>
+      <c r="K5" t="str">
+        <f ca="1">IF(ISBLANK(L5),"",
+VLOOKUP(L5,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N5">
+        <v>-2</v>
+      </c>
+      <c r="O5">
+        <f ca="1">IF(A5&lt;&gt;"un","",24+N5)</f>
+        <v>22</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="O4" t="str">
-        <f ca="1">"Mn_"&amp;A4</f>
-        <v>Mn_ev</v>
-      </c>
-      <c r="P4" t="str">
-        <f ca="1">"Md_"&amp;A4</f>
-        <v>Md_ev</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
+      <c r="S5" s="7">
+        <f>J5+R5+1</f>
+        <v>43970</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="S4" t="str">
-        <f t="shared" ref="S4" ca="1" si="8">S3&amp;IF(LEN(T4)=0,"",","&amp;T4)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"18","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"23","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"21","ey":"2020","em":"5","ed":"23","tp":"cu","vl":"DI","cn":2,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+      <c r="U5" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}</v>
+      </c>
+      <c r="V5" t="str">
+        <f ca="1">IF(T5&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A5&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C5&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D5&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E5&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F5&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G5&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H5&amp;""""
+&amp;IF(LEN(K5)=0,"",","""&amp;K$1&amp;""":"""&amp;K5&amp;"""")
+&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
+&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"&amp;N5)
+&amp;IF(LEN(P5)=0,"",","""&amp;P$1&amp;""":"""&amp;P5&amp;"""")
+&amp;IF(LEN(Q5)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q5&amp;"""")
+&amp;","""&amp;R$1&amp;""":"&amp;R5&amp;"}")</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}</v>
+      </c>
+      <c r="X5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 B2:B4" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5 B2:B5" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA9D38-35DC-4CDD-B33D-96C52B7C0F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033161DC-A00E-4592-B549-F2A08FED0450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1143,8 +1143,7 @@
     <col min="27" max="27" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="9" collapsed="1"/>
-    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" collapsed="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="27" customHeight="1">
@@ -1344,7 +1343,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}]</v>
+        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1397,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1426,11 +1425,11 @@
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3" ca="1" si="8">U2&amp;IF(LEN(V3)=0,"",","&amp;V3)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
       </c>
       <c r="X3" t="s">
         <v>32</v>
@@ -1515,7 +1514,7 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U5" ca="1" si="15">U3&amp;IF(LEN(V4)=0,"",","&amp;V4)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2}</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1593,7 +1592,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"0","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}</v>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}</v>
       </c>
       <c r="V5" t="str">
         <f ca="1">IF(T5&lt;&gt;1,"",

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033161DC-A00E-4592-B549-F2A08FED0450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE74A21-6F17-4214-8417-AA505D0854D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
+    <sheet name="down서버" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,122 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ev </t>
+          <t xml:space="preserve">un </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점검</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ev </t>
         </r>
         <r>
           <rPr>
@@ -230,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A7303149-80DB-41AB-8A09-D685C268BF62}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A7303149-80DB-41AB-8A09-D685C268BF62}">
       <text>
         <r>
           <rPr>
@@ -525,7 +641,175 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>됨</t>
+          <t>됨
+그리고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버튼이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없으니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표기되지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{F02EBB83-B05A-431B-93DC-E9DC2456024B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력을 모두 해제하여 [] 데이터를 올리면 로그인 하는 모든 유저의 데이터가 초기화됨
+행추가와 행삭제를 1개씩 하지 말고 토탈 데이터의 숫자가 다르게 해야 로그인하고 있는 유저도 실시간으로 변경점을 비교하여 받을 수 있다</t>
         </r>
       </text>
     </comment>
@@ -534,7 +818,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>tp</t>
   </si>
@@ -595,92 +879,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>일일 우편</t>
+  </si>
+  <si>
+    <t>새해 선물</t>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이날포함이후부터 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>업데이트 내역</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>재화</t>
+  </si>
+  <si>
     <t>DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 우편</t>
-  </si>
-  <si>
-    <t>새해 선물</t>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이날포함이후부터 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보이지 않는 우편</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>ny</t>
-  </si>
-  <si>
-    <t>ev</t>
-  </si>
-  <si>
-    <t>업데이트 내역</t>
-  </si>
-  <si>
-    <t>업데이트 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점검시각참고</t>
+    <t>참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각24시</t>
+  </si>
+  <si>
+    <t>시각24시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분</t>
+  </si>
+  <si>
+    <t>분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국시각</t>
+  </si>
+  <si>
+    <t>한국시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안보이는 점검우편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버다운여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버다운시작시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버다운끝시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,6 +1024,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ AM/PM\ h:mm:ss"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -770,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +1132,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,38 +1459,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="4.625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="4.875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.125" customWidth="1"/>
-    <col min="15" max="15" width="10.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" collapsed="1"/>
-    <col min="18" max="18" width="5.125" customWidth="1"/>
-    <col min="19" max="19" width="11.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" collapsed="1"/>
-    <col min="24" max="24" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" collapsed="1"/>
-    <col min="27" max="27" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" collapsed="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="4.875" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="17" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="22" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="5.125" customWidth="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -1150,74 +1495,78 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f t="array" ref="D1">IF(SUM(IF(B:B&gt;=2,1,0))&gt;1,"중복아이디있음","sy")</f>
+        <v>sy</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>11</v>
       </c>
       <c r="AA1" t="s">
         <v>1</v>
@@ -1230,108 +1579,101 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" t="str">
-        <f ca="1">IF(ISBLANK(B2),"",
-VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(A:A,A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <f>YEAR(J2)</f>
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <f>MONTH(J2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>DAY(J2)</f>
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <f>YEAR(K2+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <f>MONTH(K2+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <f>DAY(K2+1)</f>
+        <v>18</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43964</v>
+      </c>
+      <c r="K2" s="4">
+        <v>43968</v>
+      </c>
+      <c r="L2" t="str">
+        <f ca="1">IF(ISBLANK(M2),"",
+VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>ny</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <f>YEAR(I2)</f>
-        <v>2020</v>
-      </c>
-      <c r="D2">
-        <f>MONTH(I2)</f>
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <f>DAY(I2)</f>
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <f>YEAR(J2+1)</f>
-        <v>2020</v>
-      </c>
-      <c r="G2">
-        <f>MONTH(J2+1)</f>
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <f>DAY(J2+1)</f>
-        <v>19</v>
-      </c>
-      <c r="I2" s="4">
+        <v/>
+      </c>
+      <c r="O2">
+        <f>-(24*60-((9)*60+(0)))</f>
+        <v>-900</v>
+      </c>
+      <c r="P2">
+        <f>IF(A2&lt;&gt;"un","",
+INT((24*60+O2)/60))</f>
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <f>IF(A2&lt;&gt;"un","",
+MOD(24*60+O2,60))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <f>IF(A2&lt;&gt;"un","",
+K2+9/24+P2/24+Q2/24/60)</f>
+        <v>43968.75</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7">
+        <f ca="1">K2+IF(LEN(L2)=0,0,U2)+1</f>
         <v>43969</v>
       </c>
-      <c r="J2" s="4">
-        <v>43969</v>
-      </c>
-      <c r="K2" t="str">
-        <f ca="1">IF(ISBLANK(L2),"",
-VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:O4" ca="1" si="0">IF(A2&lt;&gt;"un","",24+N2)</f>
-        <v/>
-      </c>
-      <c r="P2" t="str">
-        <f ca="1">"Mn_"&amp;A2</f>
-        <v>Mn_ny</v>
-      </c>
-      <c r="Q2" t="str">
-        <f ca="1">"Md_"&amp;A2</f>
-        <v>Md_ny</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2" s="7">
-        <f>J2+R2+1</f>
-        <v>43973</v>
-      </c>
-      <c r="T2">
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="U2" t="str">
-        <f ca="1">V2</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
-      </c>
-      <c r="V2" t="str">
-        <f t="shared" ref="V2:V4" ca="1" si="1">IF(T2&lt;&gt;1,"",
+      <c r="X2" t="str">
+        <f ca="1">Y2</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7}</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y4" ca="1" si="0">IF(W2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
-&amp;","""&amp;C$1&amp;""":"""&amp;C2&amp;""""
 &amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
 &amp;","""&amp;E$1&amp;""":"""&amp;E2&amp;""""
 &amp;","""&amp;F$1&amp;""":"""&amp;F2&amp;""""
 &amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;""""
 &amp;","""&amp;H$1&amp;""":"""&amp;H2&amp;""""
-&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"""&amp;K2&amp;"""")
-&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
-&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
-&amp;IF(LEN(P2)=0,"",","""&amp;P$1&amp;""":"""&amp;P2&amp;"""")
-&amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
-&amp;","""&amp;R$1&amp;""":"&amp;R2&amp;"}")</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
+&amp;","""&amp;I$1&amp;""":"""&amp;I2&amp;""""
+&amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"""&amp;L2&amp;"""")
+&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"""&amp;N2&amp;"""")
+&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"&amp;O2)
+&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"""&amp;S2&amp;"""")
+&amp;IF(LEN(T2)=0,"",","""&amp;T$1&amp;""":"""&amp;T2&amp;"""")
+&amp;","""&amp;U$1&amp;""":"&amp;U2&amp;"}")</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7}</v>
       </c>
       <c r="AA2" t="s">
         <v>4</v>
@@ -1341,101 +1683,107 @@
       </c>
       <c r="AD2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
+IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" t="str">
-        <f ca="1">IF(ISBLANK(B3),"",
-VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>ev</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3" si="2">YEAR(I3)</f>
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(A:A,A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="1">YEAR(J3)</f>
         <v>2020</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3" si="3">MONTH(I3)</f>
+      <c r="E3">
+        <f t="shared" ref="E3" si="2">MONTH(J3)</f>
         <v>5</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3" si="4">DAY(I3)</f>
+      <c r="F3">
+        <f t="shared" ref="F3" si="3">DAY(J3)</f>
         <v>13</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3" si="5">YEAR(J3+1)</f>
+      <c r="G3">
+        <f t="shared" ref="G3" si="4">YEAR(K3+1)</f>
         <v>2020</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3" si="6">MONTH(J3+1)</f>
+      <c r="H3">
+        <f t="shared" ref="H3" si="5">MONTH(K3+1)</f>
         <v>5</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3" si="7">DAY(J3+1)</f>
-        <v>17</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="I3">
+        <f t="shared" ref="I3" si="6">DAY(K3+1)</f>
+        <v>27</v>
+      </c>
+      <c r="J3" s="4">
         <v>43964</v>
       </c>
-      <c r="J3" s="4">
-        <v>43967</v>
-      </c>
-      <c r="K3" t="str">
-        <f ca="1">IF(ISBLANK(L3),"",
-VLOOKUP(L3,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="K3" s="4">
+        <v>43977</v>
+      </c>
+      <c r="L3" t="str">
+        <f ca="1">IF(ISBLANK(M3),"",
+VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>be</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>2</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P5" si="7">IF(A3&lt;&gt;"un","",
+INT((24*60+O3)/60))</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q5" si="8">IF(A3&lt;&gt;"un","",
+MOD(24*60+O3,60))</f>
+        <v/>
+      </c>
+      <c r="R3" s="9" t="str">
+        <f t="shared" ref="R3:R5" si="9">IF(A3&lt;&gt;"un","",
+K3+9/24+P3/24+Q3/24/60)</f>
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <f>"Mn_"&amp;A3</f>
+        <v>Mn_ev</v>
+      </c>
+      <c r="T3" t="str">
+        <f>"Md_"&amp;A3</f>
+        <v>Md_ev</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" ref="V3:V5" ca="1" si="10">K3+IF(LEN(L3)=0,0,U3)+1</f>
+        <v>43979</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3" ca="1" si="11">X2&amp;IF(LEN(Y3)=0,"",","&amp;Y3)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
+      </c>
+      <c r="Y3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <f ca="1">"Mn_"&amp;A3</f>
-        <v>Mn_ev</v>
-      </c>
-      <c r="Q3" t="str">
-        <f ca="1">"Md_"&amp;A3</f>
-        <v>Md_ev</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="7">
-        <f>J3+R3+1</f>
-        <v>43970</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3" ca="1" si="8">U2&amp;IF(LEN(V3)=0,"",","&amp;V3)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2}</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>33</v>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -1445,188 +1793,381 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" t="str">
-        <f ca="1">IF(ISBLANK(B4),"",
-VLOOKUP(B4,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>up</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C5" si="9">YEAR(I4)</f>
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(A:A,A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4" si="12">YEAR(J4)</f>
         <v>2020</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D5" si="10">MONTH(I4)</f>
+      <c r="E4">
+        <f t="shared" ref="E4" si="13">MONTH(J4)</f>
         <v>5</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E5" si="11">DAY(I4)</f>
-        <v>16</v>
-      </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="12">YEAR(J4+1)</f>
+        <f t="shared" ref="F4" si="14">DAY(J4)</f>
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4" si="15">YEAR(K4+1)</f>
         <v>2020</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G5" si="13">MONTH(J4+1)</f>
+      <c r="H4">
+        <f t="shared" ref="H4" si="16">MONTH(K4+1)</f>
         <v>5</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H5" si="14">DAY(J4+1)</f>
+      <c r="I4">
+        <f t="shared" ref="I4" si="17">DAY(K4+1)</f>
         <v>23</v>
       </c>
-      <c r="I4" s="4">
-        <v>43967</v>
-      </c>
       <c r="J4" s="4">
+        <v>43968</v>
+      </c>
+      <c r="K4" s="4">
         <v>43973</v>
       </c>
-      <c r="K4" t="str">
-        <f ca="1">IF(ISBLANK(L4),"",
-VLOOKUP(L4,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="L4" t="str">
+        <f ca="1">IF(ISBLANK(M4),"",
+VLOOKUP(M4,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R4" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f>"Mn_"&amp;A4</f>
+        <v>Mn_up</v>
+      </c>
+      <c r="T4" t="str">
+        <f>"Md_"&amp;A4</f>
+        <v>Md_up</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>43974</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
+      </c>
+      <c r="Y4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <f ca="1">"Mn_"&amp;A4</f>
-        <v>Mn_up</v>
-      </c>
-      <c r="Q4" t="str">
-        <f ca="1">"Md_"&amp;A4</f>
-        <v>Md_up</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" s="7">
-        <f>J4+R4+1</f>
-        <v>43976</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U5" ca="1" si="15">U3&amp;IF(LEN(V4)=0,"",","&amp;V4)</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2}</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2}</v>
-      </c>
-      <c r="X4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>34</v>
+        <v>{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" t="str">
-        <f ca="1">IF(ISBLANK(B5),"",
-VLOOKUP(B5,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(A:A,A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <f>YEAR(J5)</f>
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <f>MONTH(J5)</f>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>DAY(J5)</f>
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <f>YEAR(K5+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H5">
+        <f>MONTH(K5+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f>DAY(K5+1)</f>
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43969</v>
+      </c>
+      <c r="K5" s="4">
+        <v>43970</v>
+      </c>
+      <c r="L5" t="str">
+        <f ca="1">IF(ISBLANK(M5),"",
+VLOOKUP(M5,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>un</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
+        <v>cu</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R5" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>2020</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="I5" s="4">
-        <v>43964</v>
-      </c>
-      <c r="J5" s="4">
-        <v>43967</v>
-      </c>
-      <c r="K5" t="str">
-        <f ca="1">IF(ISBLANK(L5),"",
-VLOOKUP(L5,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
         <v/>
       </c>
-      <c r="N5">
-        <v>-2</v>
-      </c>
-      <c r="O5">
-        <f ca="1">IF(A5&lt;&gt;"un","",24+N5)</f>
-        <v>22</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5" s="7">
-        <f>J5+R5+1</f>
-        <v>43970</v>
-      </c>
-      <c r="T5">
+      <c r="S5" t="str">
+        <f>"Mn_"&amp;A5</f>
+        <v>Mn_ny</v>
+      </c>
+      <c r="T5" t="str">
+        <f>"Md_"&amp;A5</f>
+        <v>Md_ny</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>43974</v>
+      </c>
+      <c r="W5">
         <v>1</v>
       </c>
-      <c r="U5" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"19","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":2},{"id":"up","sy":"2020","sm":"5","sd":"16","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":2},{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}</v>
-      </c>
-      <c r="V5" t="str">
-        <f ca="1">IF(T5&lt;&gt;1,"",
+      <c r="X5" t="str">
+        <f ca="1">X4&amp;IF(LEN(Y5)=0,"",","&amp;Y5)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+      </c>
+      <c r="Y5" t="str">
+        <f ca="1">IF(W5&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A5&amp;""""
-&amp;","""&amp;C$1&amp;""":"""&amp;C5&amp;""""
 &amp;","""&amp;D$1&amp;""":"""&amp;D5&amp;""""
 &amp;","""&amp;E$1&amp;""":"""&amp;E5&amp;""""
 &amp;","""&amp;F$1&amp;""":"""&amp;F5&amp;""""
 &amp;","""&amp;G$1&amp;""":"""&amp;G5&amp;""""
 &amp;","""&amp;H$1&amp;""":"""&amp;H5&amp;""""
-&amp;IF(LEN(K5)=0,"",","""&amp;K$1&amp;""":"""&amp;K5&amp;"""")
-&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
-&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"&amp;N5)
-&amp;IF(LEN(P5)=0,"",","""&amp;P$1&amp;""":"""&amp;P5&amp;"""")
-&amp;IF(LEN(Q5)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q5&amp;"""")
-&amp;","""&amp;R$1&amp;""":"&amp;R5&amp;"}")</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"17","cn":-2,"ti":2}</v>
-      </c>
-      <c r="X5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>38</v>
+&amp;","""&amp;I$1&amp;""":"""&amp;I5&amp;""""
+&amp;IF(LEN(L5)=0,"",","""&amp;L$1&amp;""":"""&amp;L5&amp;"""")
+&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"""&amp;N5&amp;"""")
+&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"&amp;O5)
+&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"""&amp;S5&amp;"""")
+&amp;IF(LEN(T5)=0,"",","""&amp;T$1&amp;""":"""&amp;T5&amp;"""")
+&amp;","""&amp;U$1&amp;""":"&amp;U5&amp;"}")</f>
+        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5 B2:B5" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2F8B4-F612-466E-BE87-D206D0DE5323}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="22" style="8" customWidth="1"/>
+    <col min="9" max="10" width="11.125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>IF(A2=0,"",D2)</f>
+        <v/>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>J2</f>
+        <v>"0":"0"</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f t="shared" ref="J2" si="0">""""&amp;$A2&amp;""":"""&amp;C2&amp;""""</f>
+        <v>"0":"0"</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"{"&amp;I4&amp;"}"</f>
+        <v>{"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT","2":"Sun, 17 May 2020 09:15:00 GMT"}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>CHOOSE(WEEKDAY(D3),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")&amp;", "
+&amp;TEXT(D3,"dd mmm yyyy")&amp;" "
+&amp;TEXT(D3,"hh:mm:ss")&amp;" GMT"</f>
+        <v>Sun, 17 May 2020 09:00:00 GMT</v>
+      </c>
+      <c r="D3" s="9">
+        <f>E3+F3/24+G3/24/60</f>
+        <v>43968.375</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43968</v>
+      </c>
+      <c r="F3" s="10">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H4" si="1">IF(A3=0,"",D3+9/24)</f>
+        <v>43968.75</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f>I2&amp;","&amp;J3</f>
+        <v>"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT"</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f>""""&amp;$A3&amp;""":"""&amp;C3&amp;""""</f>
+        <v>"1":"Sun, 17 May 2020 09:00:00 GMT"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>CHOOSE(WEEKDAY(D4),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")&amp;", "
+&amp;TEXT(D4,"dd mmm yyyy")&amp;" "
+&amp;TEXT(D4,"hh:mm:ss")&amp;" GMT"</f>
+        <v>Sun, 17 May 2020 09:15:00 GMT</v>
+      </c>
+      <c r="D4" s="9">
+        <f>E4+F4/24+G4/24/60</f>
+        <v>43968.385416666664</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43968</v>
+      </c>
+      <c r="F4" s="10">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
+        <v>43968.760416666664</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f>I3&amp;","&amp;J4</f>
+        <v>"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT","2":"Sun, 17 May 2020 09:15:00 GMT"</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f t="shared" ref="J4" si="2">""""&amp;$A4&amp;""":"""&amp;C4&amp;""""</f>
+        <v>"2":"Sun, 17 May 2020 09:15:00 GMT"</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE74A21-6F17-4214-8417-AA505D0854D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF252A8-70F1-4E31-8B58-75D0C5E35DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -1459,9 +1459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2084,7 +2084,9 @@
         <v>"0":"0"</v>
       </c>
       <c r="L2" t="str">
-        <f>"{"&amp;I4&amp;"}"</f>
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(I1,COUNTA(I:I)-1,0),1)=",",SUBSTITUTE(OFFSET(I1,COUNTA(I:I)-1,0),",","",1),OFFSET(I1,COUNTA(I:I)-1,0))
+&amp;"}"</f>
         <v>{"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT","2":"Sun, 17 May 2020 09:15:00 GMT"}</v>
       </c>
     </row>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF252A8-70F1-4E31-8B58-75D0C5E35DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD49C5-F7DA-43E4-8809-5F56E5B2DA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
@@ -1467,27 +1467,30 @@
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="4.875" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="4.875" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="6.625" customWidth="1"/>
-    <col min="16" max="17" width="10.375" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="22" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="17" width="10.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
     <col min="21" max="21" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" collapsed="1"/>
+    <col min="27" max="27" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" collapsed="1"/>
     <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -1685,7 +1688,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1709,7 +1712,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3" si="3">DAY(J3)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3" si="4">YEAR(K3+1)</f>
@@ -1717,17 +1720,17 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3" si="5">MONTH(K3+1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3" si="6">DAY(K3+1)</f>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J3" s="4">
-        <v>43964</v>
+        <v>43978</v>
       </c>
       <c r="K3" s="4">
-        <v>43977</v>
+        <v>43985</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">IF(ISBLANK(M3),"",
@@ -1772,18 +1775,18 @@
       </c>
       <c r="V3" s="7">
         <f t="shared" ref="V3:V5" ca="1" si="10">K3+IF(LEN(L3)=0,0,U3)+1</f>
-        <v>43979</v>
+        <v>43987</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3" ca="1" si="11">X2&amp;IF(LEN(Y3)=0,"",","&amp;Y3)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1966,7 +1969,7 @@
       </c>
       <c r="X5" t="str">
         <f ca="1">X4&amp;IF(LEN(Y5)=0,"",","&amp;Y5)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"27","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="Y5" t="str">
         <f ca="1">IF(W5&lt;&gt;1,"",
@@ -2003,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2F8B4-F612-466E-BE87-D206D0DE5323}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD49C5-F7DA-43E4-8809-5F56E5B2DA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B219E-1DE6-415A-AC18-90B391D6F8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -1475,8 +1475,8 @@
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="4.625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
     <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="4.875" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="6.625" customWidth="1"/>
@@ -1688,7 +1688,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3" si="3">DAY(J3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3" si="4">YEAR(K3+1)</f>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="K3" s="4">
         <v>43985</v>
@@ -1782,11 +1782,11 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3" ca="1" si="11">X2&amp;IF(LEN(Y3)=0,"",","&amp;Y3)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
+        <v>{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="X5" t="str">
         <f ca="1">X4&amp;IF(LEN(Y5)=0,"",","&amp;Y5)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"27","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="Y5" t="str">
         <f ca="1">IF(W5&lt;&gt;1,"",

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B219E-1DE6-415A-AC18-90B391D6F8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D14DC8-F0AB-40D0-BD7F-2B698E9A89C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
@@ -1467,9 +1467,9 @@
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="4.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
@@ -1477,20 +1477,17 @@
     <col min="9" max="9" width="3.625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.875" style="3" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="4.875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="4.875" customWidth="1"/>
     <col min="15" max="15" width="6.625" customWidth="1"/>
-    <col min="16" max="17" width="10.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="16" max="17" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="22" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" collapsed="1"/>
-    <col min="27" max="27" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" collapsed="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -1688,7 +1685,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1812,11 +1809,11 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4" si="13">MONTH(J4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4" si="14">DAY(J4)</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="15">YEAR(K4+1)</f>
@@ -1824,17 +1821,17 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4" si="16">MONTH(K4+1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4" si="17">DAY(K4+1)</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4">
-        <v>43968</v>
+        <v>43983</v>
       </c>
       <c r="K4" s="4">
-        <v>43973</v>
+        <v>43985</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">IF(ISBLANK(M4),"",
@@ -1867,18 +1864,18 @@
       </c>
       <c r="V4" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>43974</v>
+        <v>43986</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7}</v>
+        <v>{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7}</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1898,11 +1895,11 @@
       </c>
       <c r="E5">
         <f>MONTH(J5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f>DAY(J5)</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>YEAR(K5+1)</f>
@@ -1910,17 +1907,17 @@
       </c>
       <c r="H5">
         <f>MONTH(K5+1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <f>DAY(K5+1)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J5" s="4">
-        <v>43969</v>
+        <v>43985</v>
       </c>
       <c r="K5" s="4">
-        <v>43970</v>
+        <v>43987</v>
       </c>
       <c r="L5" t="str">
         <f ca="1">IF(ISBLANK(M5),"",
@@ -1962,14 +1959,14 @@
       </c>
       <c r="V5" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>43974</v>
+        <v>43991</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5" t="str">
         <f ca="1">X4&amp;IF(LEN(Y5)=0,"",","&amp;Y5)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"5","sd":"17","ey":"2020","em":"5","ed":"23","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="Y5" t="str">
         <f ca="1">IF(W5&lt;&gt;1,"",
@@ -1986,7 +1983,7 @@
 &amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"""&amp;S5&amp;"""")
 &amp;IF(LEN(T5)=0,"",","""&amp;T$1&amp;""":"""&amp;T5&amp;"""")
 &amp;","""&amp;U$1&amp;""":"&amp;U5&amp;"}")</f>
-        <v>{"id":"ny","sy":"2020","sm":"5","sd":"18","ey":"2020","em":"5","ed":"20","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D14DC8-F0AB-40D0-BD7F-2B698E9A89C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1764A264-30AA-44D3-A916-3EBD7618752C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -795,6 +795,29 @@
             <charset val="129"/>
           </rPr>
           <t>않는다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{EE2E2CF3-1B21-4463-8052-75C50093D94C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소값은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
         </r>
       </text>
     </comment>
@@ -1459,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1645,18 +1668,18 @@
         <v>43968.75</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V2" s="7">
-        <f ca="1">K2+IF(LEN(L2)=0,0,U2)+1</f>
-        <v>43969</v>
+        <f>K2+U2+1</f>
+        <v>43970</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2" t="str">
         <f ca="1">Y2</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1}</v>
       </c>
       <c r="Y2" t="str">
         <f t="shared" ref="Y2:Y4" ca="1" si="0">IF(W2&lt;&gt;1,"",
@@ -1673,7 +1696,7 @@
 &amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"""&amp;S2&amp;"""")
 &amp;IF(LEN(T2)=0,"",","""&amp;T$1&amp;""":"""&amp;T2&amp;"""")
 &amp;","""&amp;U$1&amp;""":"&amp;U2&amp;"}")</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1}</v>
       </c>
       <c r="AA2" t="s">
         <v>4</v>
@@ -1685,7 +1708,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1771,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V5" ca="1" si="10">K3+IF(LEN(L3)=0,0,U3)+1</f>
+        <f t="shared" ref="V3:V5" si="10">K3+U3+1</f>
         <v>43987</v>
       </c>
       <c r="W3">
@@ -1779,7 +1802,7 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3" ca="1" si="11">X2&amp;IF(LEN(Y3)=0,"",","&amp;Y3)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1825,13 +1848,13 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4" si="17">DAY(K4+1)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4">
         <v>43983</v>
       </c>
       <c r="K4" s="4">
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">IF(ISBLANK(M4),"",
@@ -1860,22 +1883,22 @@
         <v>Md_up</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>43986</v>
+        <f t="shared" si="10"/>
+        <v>43993</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7}</v>
+        <v>{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1}</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1958,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>43991</v>
       </c>
       <c r="W5">
@@ -1966,7 +1989,7 @@
       </c>
       <c r="X5" t="str">
         <f ca="1">X4&amp;IF(LEN(Y5)=0,"",","&amp;Y5)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":7},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"4","nm":"Mn_up","de":"Md_up","ti":7},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="Y5" t="str">
         <f ca="1">IF(W5&lt;&gt;1,"",
@@ -2004,7 +2027,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1764A264-30AA-44D3-A916-3EBD7618752C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18883B5-6729-4422-83E2-C66FA881E3FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -1482,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1708,7 +1708,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1848,13 +1848,13 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4" si="17">DAY(K4+1)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" s="4">
         <v>43983</v>
       </c>
       <c r="K4" s="4">
-        <v>43991</v>
+        <v>43994</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">IF(ISBLANK(M4),"",
@@ -1887,18 +1887,18 @@
       </c>
       <c r="V4" s="7">
         <f t="shared" si="10"/>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1}</v>
+        <v>{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1}</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="X5" t="str">
         <f ca="1">X4&amp;IF(LEN(Y5)=0,"",","&amp;Y5)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"10","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
       <c r="Y5" t="str">
         <f ca="1">IF(W5&lt;&gt;1,"",

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18883B5-6729-4422-83E2-C66FA881E3FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02782A0B-24CF-4D71-9D9F-C87C148A3109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>tp</t>
   </si>
@@ -1040,6 +1040,14 @@
   </si>
   <si>
     <t>중간 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서프라이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,11 +1488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1671,8 +1679,8 @@
         <v>1</v>
       </c>
       <c r="V2" s="7">
-        <f>K2+U2+1</f>
-        <v>43970</v>
+        <f>K2+IF(ISBLANK(M2),0,U2)+1</f>
+        <v>43969</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1708,7 +1716,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"13","ey":"2020","em":"6","ed":"14","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1794,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V5" si="10">K3+U3+1</f>
+        <f t="shared" ref="V3:V6" si="10">K3+IF(ISBLANK(M3),0,U3)+1</f>
         <v>43987</v>
       </c>
       <c r="W3">
@@ -1887,7 +1895,7 @@
       </c>
       <c r="V4" s="7">
         <f t="shared" si="10"/>
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -2009,10 +2017,121 @@
         <v>{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3}</v>
       </c>
     </row>
+    <row r="6" spans="1:30" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8">
+        <f>COUNTIF(A:A,A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8">
+        <f>YEAR(J6)</f>
+        <v>2020</v>
+      </c>
+      <c r="E6" s="8">
+        <f>MONTH(J6)</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <f>DAY(J6)</f>
+        <v>13</v>
+      </c>
+      <c r="G6" s="8">
+        <f>YEAR(K6+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H6" s="8">
+        <f>MONTH(K6+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <f>DAY(K6+1)</f>
+        <v>14</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43995</v>
+      </c>
+      <c r="K6" s="4">
+        <v>43995</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f ca="1">IF(ISBLANK(M6),"",
+VLOOKUP(M6,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="8">
+        <v>300</v>
+      </c>
+      <c r="P6" s="8" t="str">
+        <f t="shared" ref="P6" si="19">IF(A6&lt;&gt;"un","",
+INT((24*60+O6)/60))</f>
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="str">
+        <f t="shared" ref="Q6" si="20">IF(A6&lt;&gt;"un","",
+MOD(24*60+O6,60))</f>
+        <v/>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f t="shared" ref="R6" si="21">IF(A6&lt;&gt;"un","",
+K6+9/24+P6/24+Q6/24/60)</f>
+        <v/>
+      </c>
+      <c r="S6" s="8" t="str">
+        <f>"Mn_"&amp;A6</f>
+        <v>Mn_su</v>
+      </c>
+      <c r="T6" s="8" t="str">
+        <f>"Md_"&amp;A6</f>
+        <v>Md_su</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="10"/>
+        <v>43997</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8" t="str">
+        <f ca="1">X5&amp;IF(LEN(Y6)=0,"",","&amp;Y6)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"13","ey":"2020","em":"6","ed":"14","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+      <c r="Y6" s="8" t="str">
+        <f ca="1">IF(W6&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A6&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D6&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E6&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F6&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G6&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H6&amp;""""
+&amp;","""&amp;I$1&amp;""":"""&amp;I6&amp;""""
+&amp;IF(LEN(L6)=0,"",","""&amp;L$1&amp;""":"""&amp;L6&amp;"""")
+&amp;IF(LEN(N6)=0,"",","""&amp;N$1&amp;""":"""&amp;N6&amp;"""")
+&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"&amp;O6)
+&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
+&amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"""&amp;T6&amp;"""")
+&amp;","""&amp;U$1&amp;""":"&amp;U6&amp;"}")</f>
+        <v>{"id":"su","sy":"2020","sm":"6","sd":"13","ey":"2020","em":"6","ed":"14","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02782A0B-24CF-4D71-9D9F-C87C148A3109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74133167-D59E-4AA1-B6EE-74E19E841C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -1490,9 +1490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1716,7 +1716,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"13","ey":"2020","em":"6","ed":"14","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"14","ey":"2020","em":"6","ed":"15","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F6" s="8">
         <f>DAY(J6)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="8">
         <f>YEAR(K6+1)</f>
@@ -2050,13 +2050,13 @@
       </c>
       <c r="I6" s="8">
         <f>DAY(K6+1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="K6" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="L6" s="8" t="str">
         <f ca="1">IF(ISBLANK(M6),"",
@@ -2101,14 +2101,14 @@
       </c>
       <c r="V6" s="7">
         <f t="shared" si="10"/>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="W6" s="8">
         <v>1</v>
       </c>
       <c r="X6" s="8" t="str">
         <f ca="1">X5&amp;IF(LEN(Y6)=0,"",","&amp;Y6)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"13","ey":"2020","em":"6","ed":"14","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"14","ey":"2020","em":"6","ed":"15","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
       </c>
       <c r="Y6" s="8" t="str">
         <f ca="1">IF(W6&lt;&gt;1,"",
@@ -2125,7 +2125,7 @@
 &amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
 &amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"""&amp;T6&amp;"""")
 &amp;","""&amp;U$1&amp;""":"&amp;U6&amp;"}")</f>
-        <v>{"id":"su","sy":"2020","sm":"6","sd":"13","ey":"2020","em":"6","ed":"14","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+        <v>{"id":"su","sy":"2020","sm":"6","sd":"14","ey":"2020","em":"6","ed":"15","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74133167-D59E-4AA1-B6EE-74E19E841C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9C7DF-DF6F-4873-8203-332C86880424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,484 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>않는다</t>
+          <t>않는다
+공지는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유효기간을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그러면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1~10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝자락에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사람만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시점에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예외처리로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사람은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>날짜까지는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표현된다</t>
         </r>
       </text>
     </comment>
@@ -817,7 +1294,285 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좋다
+그래야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하루</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지나서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>갱신해버릴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
         </r>
       </text>
     </comment>
@@ -1490,9 +2245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1679,8 +2434,8 @@
         <v>1</v>
       </c>
       <c r="V2" s="7">
-        <f>K2+IF(ISBLANK(M2),0,U2)+1</f>
-        <v>43969</v>
+        <f>K2+U2+1</f>
+        <v>43970</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1802,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V6" si="10">K3+IF(ISBLANK(M3),0,U3)+1</f>
+        <f t="shared" ref="V3:V6" si="10">K3+U3+1</f>
         <v>43987</v>
       </c>
       <c r="W3">
@@ -1895,7 +2650,7 @@
       </c>
       <c r="V4" s="7">
         <f t="shared" si="10"/>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="W4">
         <v>1</v>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9C7DF-DF6F-4873-8203-332C86880424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2356ECE-2F17-4357-9E27-0DE3CAA93B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -1272,6 +1272,139 @@
             <charset val="129"/>
           </rPr>
           <t>표현된다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{CE9D464F-A277-40A3-871E-1D68828A1CA1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재화에서는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> DI, EN, GO
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">장비상자에서는
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">희귀
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">영웅
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에픽
+장비</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상자를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제공</t>
         </r>
       </text>
     </comment>
@@ -2247,7 +2380,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2356ECE-2F17-4357-9E27-0DE3CAA93B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92487085-F00E-4203-80A2-945713D3496D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
@@ -1729,7 +1729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>tp</t>
   </si>
@@ -1937,6 +1937,20 @@
   <si>
     <t>서프라이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mn_su</t>
+  </si>
+  <si>
+    <t>Md_su</t>
   </si>
 </sst>
 </file>
@@ -2376,11 +2390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2604,7 +2618,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"14","ey":"2020","em":"6","ed":"15","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -2922,11 +2936,11 @@
       </c>
       <c r="E6" s="8">
         <f>MONTH(J6)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8">
         <f>DAY(J6)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
         <f>YEAR(K6+1)</f>
@@ -2934,32 +2948,32 @@
       </c>
       <c r="H6" s="8">
         <f>MONTH(K6+1)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8">
         <f>DAY(K6+1)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
-        <v>43996</v>
+        <v>44076</v>
       </c>
       <c r="K6" s="4">
-        <v>43996</v>
+        <v>44076</v>
       </c>
       <c r="L6" s="8" t="str">
         <f ca="1">IF(ISBLANK(M6),"",
 VLOOKUP(M6,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>be</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
       </c>
       <c r="O6" s="8">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="P6" s="8" t="str">
         <f t="shared" ref="P6" si="19">IF(A6&lt;&gt;"un","",
@@ -2989,14 +3003,14 @@
       </c>
       <c r="V6" s="7">
         <f t="shared" si="10"/>
-        <v>43998</v>
+        <v>44078</v>
       </c>
       <c r="W6" s="8">
         <v>1</v>
       </c>
       <c r="X6" s="8" t="str">
         <f ca="1">X5&amp;IF(LEN(Y6)=0,"",","&amp;Y6)</f>
-        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"6","sd":"14","ey":"2020","em":"6","ed":"15","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
       </c>
       <c r="Y6" s="8" t="str">
         <f ca="1">IF(W6&lt;&gt;1,"",
@@ -3013,13 +3027,231 @@
 &amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
 &amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"""&amp;T6&amp;"""")
 &amp;","""&amp;U$1&amp;""":"&amp;U6&amp;"}")</f>
-        <v>{"id":"su","sy":"2020","sm":"6","sd":"14","ey":"2020","em":"6","ed":"15","tp":"cu","vl":"DI","cn":300,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+        <v>{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8">
+        <f>COUNTIF(A:A,A7)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8">
+        <f>YEAR(J7)</f>
+        <v>2020</v>
+      </c>
+      <c r="E7" s="8">
+        <f>MONTH(J7)</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="8">
+        <f>DAY(J7)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <f>YEAR(K7+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H7" s="8">
+        <f>MONTH(K7+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="8">
+        <f>DAY(K7+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>44076</v>
+      </c>
+      <c r="K7" s="4">
+        <v>44076</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f ca="1">IF(ISBLANK(M7),"",
+VLOOKUP(M7,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>be</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8" t="str">
+        <f t="shared" ref="P7" si="22">IF(A7&lt;&gt;"un","",
+INT((24*60+O7)/60))</f>
+        <v/>
+      </c>
+      <c r="Q7" s="8" t="str">
+        <f t="shared" ref="Q7" si="23">IF(A7&lt;&gt;"un","",
+MOD(24*60+O7,60))</f>
+        <v/>
+      </c>
+      <c r="R7" s="9" t="str">
+        <f t="shared" ref="R7" si="24">IF(A7&lt;&gt;"un","",
+K7+9/24+P7/24+Q7/24/60)</f>
+        <v/>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" ref="V7" si="25">K7+U7+1</f>
+        <v>44078</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8" t="str">
+        <f ca="1">X6&amp;IF(LEN(Y7)=0,"",","&amp;Y7)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+      <c r="Y7" s="8" t="str">
+        <f ca="1">IF(W7&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A7&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D7&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E7&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F7&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G7&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H7&amp;""""
+&amp;","""&amp;I$1&amp;""":"""&amp;I7&amp;""""
+&amp;IF(LEN(L7)=0,"",","""&amp;L$1&amp;""":"""&amp;L7&amp;"""")
+&amp;IF(LEN(N7)=0,"",","""&amp;N$1&amp;""":"""&amp;N7&amp;"""")
+&amp;IF(LEN(O7)=0,"",","""&amp;O$1&amp;""":"&amp;O7)
+&amp;IF(LEN(S7)=0,"",","""&amp;S$1&amp;""":"""&amp;S7&amp;"""")
+&amp;IF(LEN(T7)=0,"",","""&amp;T$1&amp;""":"""&amp;T7&amp;"""")
+&amp;","""&amp;U$1&amp;""":"&amp;U7&amp;"}")</f>
+        <v>{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(A:A,A8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8">
+        <f>YEAR(J8)</f>
+        <v>2020</v>
+      </c>
+      <c r="E8" s="8">
+        <f>MONTH(J8)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="8">
+        <f>DAY(J8)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <f>YEAR(K8+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H8" s="8">
+        <f>MONTH(K8+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="8">
+        <f>DAY(K8+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44076</v>
+      </c>
+      <c r="K8" s="4">
+        <v>44076</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f ca="1">IF(ISBLANK(M8),"",
+VLOOKUP(M8,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>be</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8" t="str">
+        <f t="shared" ref="P8" si="26">IF(A8&lt;&gt;"un","",
+INT((24*60+O8)/60))</f>
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="str">
+        <f t="shared" ref="Q8" si="27">IF(A8&lt;&gt;"un","",
+MOD(24*60+O8,60))</f>
+        <v/>
+      </c>
+      <c r="R8" s="9" t="str">
+        <f t="shared" ref="R8" si="28">IF(A8&lt;&gt;"un","",
+K8+9/24+P8/24+Q8/24/60)</f>
+        <v/>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" ref="V8" si="29">K8+U8+1</f>
+        <v>44078</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8" t="str">
+        <f ca="1">X7&amp;IF(LEN(Y8)=0,"",","&amp;Y8)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+      <c r="Y8" s="8" t="str">
+        <f ca="1">IF(W8&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A8&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D8&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E8&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F8&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G8&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H8&amp;""""
+&amp;","""&amp;I$1&amp;""":"""&amp;I8&amp;""""
+&amp;IF(LEN(L8)=0,"",","""&amp;L$1&amp;""":"""&amp;L8&amp;"""")
+&amp;IF(LEN(N8)=0,"",","""&amp;N$1&amp;""":"""&amp;N8&amp;"""")
+&amp;IF(LEN(O8)=0,"",","""&amp;O$1&amp;""":"&amp;O8)
+&amp;IF(LEN(S8)=0,"",","""&amp;S$1&amp;""":"""&amp;S8&amp;"""")
+&amp;IF(LEN(T8)=0,"",","""&amp;T$1&amp;""":"""&amp;T8&amp;"""")
+&amp;","""&amp;U$1&amp;""":"&amp;U8&amp;"}")</f>
+        <v>{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{9A9A1257-E73D-4388-AD2E-6551E9FC8AC7}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92487085-F00E-4203-80A2-945713D3496D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125397BE-E6AB-44E4-9051-911CA5A17E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -2392,9 +2392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2516,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="B2:B8" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -2553,7 +2553,7 @@
         <v>43968</v>
       </c>
       <c r="L2" t="str">
-        <f ca="1">IF(ISBLANK(M2),"",
+        <f t="shared" ref="L2:L8" ca="1" si="1">IF(ISBLANK(M2),"",
 VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -2592,7 +2592,7 @@
         <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1}</v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" ref="Y2:Y4" ca="1" si="0">IF(W2&lt;&gt;1,"",
+        <f t="shared" ref="Y2:Y4" ca="1" si="2">IF(W2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
 &amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
 &amp;","""&amp;E$1&amp;""":"""&amp;E2&amp;""""
@@ -2626,34 +2626,34 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3" si="1">YEAR(J3)</f>
+        <f t="shared" ref="D3" si="3">YEAR(J3)</f>
         <v>2020</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3" si="2">MONTH(J3)</f>
+        <f t="shared" ref="E3" si="4">MONTH(J3)</f>
         <v>5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3" si="3">DAY(J3)</f>
+        <f t="shared" ref="F3" si="5">DAY(J3)</f>
         <v>28</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3" si="4">YEAR(K3+1)</f>
+        <f t="shared" ref="G3" si="6">YEAR(K3+1)</f>
         <v>2020</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="5">MONTH(K3+1)</f>
+        <f t="shared" ref="H3" si="7">MONTH(K3+1)</f>
         <v>6</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3" si="6">DAY(K3+1)</f>
+        <f t="shared" ref="I3" si="8">DAY(K3+1)</f>
         <v>4</v>
       </c>
       <c r="J3" s="4">
@@ -2663,9 +2663,7 @@
         <v>43985</v>
       </c>
       <c r="L3" t="str">
-        <f ca="1">IF(ISBLANK(M3),"",
-VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>be</v>
       </c>
       <c r="M3" t="s">
@@ -2678,17 +2676,17 @@
         <v>1</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P5" si="7">IF(A3&lt;&gt;"un","",
+        <f t="shared" ref="P3:P5" si="9">IF(A3&lt;&gt;"un","",
 INT((24*60+O3)/60))</f>
         <v/>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q5" si="8">IF(A3&lt;&gt;"un","",
+        <f t="shared" ref="Q3:Q5" si="10">IF(A3&lt;&gt;"un","",
 MOD(24*60+O3,60))</f>
         <v/>
       </c>
       <c r="R3" s="9" t="str">
-        <f t="shared" ref="R3:R5" si="9">IF(A3&lt;&gt;"un","",
+        <f t="shared" ref="R3:R5" si="11">IF(A3&lt;&gt;"un","",
 K3+9/24+P3/24+Q3/24/60)</f>
         <v/>
       </c>
@@ -2704,18 +2702,18 @@
         <v>1</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V6" si="10">K3+U3+1</f>
+        <f t="shared" ref="V3:V6" si="12">K3+U3+1</f>
         <v>43987</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3" ca="1" si="11">X2&amp;IF(LEN(Y3)=0,"",","&amp;Y3)</f>
+        <f t="shared" ref="X3" ca="1" si="13">X2&amp;IF(LEN(Y3)=0,"",","&amp;Y3)</f>
         <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1}</v>
       </c>
       <c r="AA3" t="s">
@@ -2730,34 +2728,34 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4" si="12">YEAR(J4)</f>
+        <f t="shared" ref="D4" si="14">YEAR(J4)</f>
         <v>2020</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4" si="13">MONTH(J4)</f>
+        <f t="shared" ref="E4" si="15">MONTH(J4)</f>
         <v>6</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4" si="14">DAY(J4)</f>
+        <f t="shared" ref="F4" si="16">DAY(J4)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4" si="15">YEAR(K4+1)</f>
+        <f t="shared" ref="G4" si="17">YEAR(K4+1)</f>
         <v>2020</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4" si="16">MONTH(K4+1)</f>
+        <f t="shared" ref="H4" si="18">MONTH(K4+1)</f>
         <v>6</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4" si="17">DAY(K4+1)</f>
+        <f t="shared" ref="I4" si="19">DAY(K4+1)</f>
         <v>13</v>
       </c>
       <c r="J4" s="4">
@@ -2767,21 +2765,19 @@
         <v>43994</v>
       </c>
       <c r="L4" t="str">
-        <f ca="1">IF(ISBLANK(M4),"",
-VLOOKUP(M4,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R4" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S4" t="str">
@@ -2796,18 +2792,18 @@
         <v>1</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>43996</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" ref="X4" ca="1" si="18">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
+        <f t="shared" ref="X4" ca="1" si="20">X3&amp;IF(LEN(Y4)=0,"",","&amp;Y4)</f>
         <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1}</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1}</v>
       </c>
     </row>
@@ -2816,7 +2812,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -2853,9 +2849,7 @@
         <v>43987</v>
       </c>
       <c r="L5" t="str">
-        <f ca="1">IF(ISBLANK(M5),"",
-VLOOKUP(M5,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="M5" t="s">
@@ -2868,15 +2862,15 @@
         <v>3</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R5" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S5" t="str">
@@ -2891,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>43991</v>
       </c>
       <c r="W5">
@@ -2924,7 +2918,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="8">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2961,9 +2955,7 @@
         <v>44076</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f ca="1">IF(ISBLANK(M6),"",
-VLOOKUP(M6,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>be</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -2976,17 +2968,17 @@
         <v>1</v>
       </c>
       <c r="P6" s="8" t="str">
-        <f t="shared" ref="P6" si="19">IF(A6&lt;&gt;"un","",
+        <f t="shared" ref="P6" si="21">IF(A6&lt;&gt;"un","",
 INT((24*60+O6)/60))</f>
         <v/>
       </c>
       <c r="Q6" s="8" t="str">
-        <f t="shared" ref="Q6" si="20">IF(A6&lt;&gt;"un","",
+        <f t="shared" ref="Q6" si="22">IF(A6&lt;&gt;"un","",
 MOD(24*60+O6,60))</f>
         <v/>
       </c>
       <c r="R6" s="9" t="str">
-        <f t="shared" ref="R6" si="21">IF(A6&lt;&gt;"un","",
+        <f t="shared" ref="R6" si="23">IF(A6&lt;&gt;"un","",
 K6+9/24+P6/24+Q6/24/60)</f>
         <v/>
       </c>
@@ -3002,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44078</v>
       </c>
       <c r="W6" s="8">
@@ -3035,7 +3027,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="8">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3072,9 +3064,7 @@
         <v>44076</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f ca="1">IF(ISBLANK(M7),"",
-VLOOKUP(M7,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>be</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -3087,17 +3077,17 @@
         <v>1</v>
       </c>
       <c r="P7" s="8" t="str">
-        <f t="shared" ref="P7" si="22">IF(A7&lt;&gt;"un","",
+        <f t="shared" ref="P7" si="24">IF(A7&lt;&gt;"un","",
 INT((24*60+O7)/60))</f>
         <v/>
       </c>
       <c r="Q7" s="8" t="str">
-        <f t="shared" ref="Q7" si="23">IF(A7&lt;&gt;"un","",
+        <f t="shared" ref="Q7" si="25">IF(A7&lt;&gt;"un","",
 MOD(24*60+O7,60))</f>
         <v/>
       </c>
       <c r="R7" s="9" t="str">
-        <f t="shared" ref="R7" si="24">IF(A7&lt;&gt;"un","",
+        <f t="shared" ref="R7" si="26">IF(A7&lt;&gt;"un","",
 K7+9/24+P7/24+Q7/24/60)</f>
         <v/>
       </c>
@@ -3111,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" ref="V7" si="25">K7+U7+1</f>
+        <f t="shared" ref="V7" si="27">K7+U7+1</f>
         <v>44078</v>
       </c>
       <c r="W7" s="8">
@@ -3144,7 +3134,7 @@
         <v>57</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3181,9 +3171,7 @@
         <v>44076</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f ca="1">IF(ISBLANK(M8),"",
-VLOOKUP(M8,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>be</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -3196,17 +3184,17 @@
         <v>1</v>
       </c>
       <c r="P8" s="8" t="str">
-        <f t="shared" ref="P8" si="26">IF(A8&lt;&gt;"un","",
+        <f t="shared" ref="P8" si="28">IF(A8&lt;&gt;"un","",
 INT((24*60+O8)/60))</f>
         <v/>
       </c>
       <c r="Q8" s="8" t="str">
-        <f t="shared" ref="Q8" si="27">IF(A8&lt;&gt;"un","",
+        <f t="shared" ref="Q8" si="29">IF(A8&lt;&gt;"un","",
 MOD(24*60+O8,60))</f>
         <v/>
       </c>
       <c r="R8" s="9" t="str">
-        <f t="shared" ref="R8" si="28">IF(A8&lt;&gt;"un","",
+        <f t="shared" ref="R8" si="30">IF(A8&lt;&gt;"un","",
 K8+9/24+P8/24+Q8/24/60)</f>
         <v/>
       </c>
@@ -3220,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" ref="V8" si="29">K8+U8+1</f>
+        <f t="shared" ref="V8" si="31">K8+U8+1</f>
         <v>44078</v>
       </c>
       <c r="W8" s="8">
@@ -3265,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2F8B4-F612-466E-BE87-D206D0DE5323}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3349,7 +3337,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(I1,COUNTA(I:I)-1,0),1)=",",SUBSTITUTE(OFFSET(I1,COUNTA(I:I)-1,0),",","",1),OFFSET(I1,COUNTA(I:I)-1,0))
 &amp;"}"</f>
-        <v>{"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT","2":"Sun, 17 May 2020 09:15:00 GMT"}</v>
+        <v>{"0":"0","1":"Tue, 03 Nov 2020 13:00:00 GMT","2":"Tue, 03 Nov 2020 15:15:00 GMT"}</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3363,32 +3351,32 @@
         <f>CHOOSE(WEEKDAY(D3),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")&amp;", "
 &amp;TEXT(D3,"dd mmm yyyy")&amp;" "
 &amp;TEXT(D3,"hh:mm:ss")&amp;" GMT"</f>
-        <v>Sun, 17 May 2020 09:00:00 GMT</v>
+        <v>Tue, 03 Nov 2020 13:00:00 GMT</v>
       </c>
       <c r="D3" s="9">
         <f>E3+F3/24+G3/24/60</f>
-        <v>43968.375</v>
+        <v>44138.541666666664</v>
       </c>
       <c r="E3" s="7">
-        <v>43968</v>
+        <v>44138</v>
       </c>
       <c r="F3" s="10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H4" si="1">IF(A3=0,"",D3+9/24)</f>
-        <v>43968.75</v>
+        <v>44138.916666666664</v>
       </c>
       <c r="I3" s="10" t="str">
         <f>I2&amp;","&amp;J3</f>
-        <v>"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT"</v>
+        <v>"0":"0","1":"Tue, 03 Nov 2020 13:00:00 GMT"</v>
       </c>
       <c r="J3" s="8" t="str">
         <f>""""&amp;$A3&amp;""":"""&amp;C3&amp;""""</f>
-        <v>"1":"Sun, 17 May 2020 09:00:00 GMT"</v>
+        <v>"1":"Tue, 03 Nov 2020 13:00:00 GMT"</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3402,32 +3390,32 @@
         <f>CHOOSE(WEEKDAY(D4),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")&amp;", "
 &amp;TEXT(D4,"dd mmm yyyy")&amp;" "
 &amp;TEXT(D4,"hh:mm:ss")&amp;" GMT"</f>
-        <v>Sun, 17 May 2020 09:15:00 GMT</v>
+        <v>Tue, 03 Nov 2020 15:15:00 GMT</v>
       </c>
       <c r="D4" s="9">
         <f>E4+F4/24+G4/24/60</f>
-        <v>43968.385416666664</v>
+        <v>44138.635416666664</v>
       </c>
       <c r="E4" s="7">
-        <v>43968</v>
+        <v>44138</v>
       </c>
       <c r="F4" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G4" s="10">
         <v>15</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="1"/>
-        <v>43968.760416666664</v>
+        <v>44139.010416666664</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>I3&amp;","&amp;J4</f>
-        <v>"0":"0","1":"Sun, 17 May 2020 09:00:00 GMT","2":"Sun, 17 May 2020 09:15:00 GMT"</v>
+        <v>"0":"0","1":"Tue, 03 Nov 2020 13:00:00 GMT","2":"Tue, 03 Nov 2020 15:15:00 GMT"</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" ref="J4" si="2">""""&amp;$A4&amp;""":"""&amp;C4&amp;""""</f>
-        <v>"2":"Sun, 17 May 2020 09:15:00 GMT"</v>
+        <v>"2":"Tue, 03 Nov 2020 15:15:00 GMT"</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125397BE-E6AB-44E4-9051-911CA5A17E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ECCC0-01CC-4F9F-828D-DC2CF530C924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
@@ -1729,7 +1729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>tp</t>
   </si>
@@ -1951,6 +1951,14 @@
   </si>
   <si>
     <t>Md_su</t>
+  </si>
+  <si>
+    <t>ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀레벨팩 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2390,11 +2398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2618,7 +2626,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}]</v>
+        <v>[{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"ti","sy":"2021","sm":"3","sd":"1","ey":"2021","em":"3","ed":"8","nm":"Mn_ti","de":"Md_ti","ti":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -3208,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" ref="V8" si="31">K8+U8+1</f>
+        <f t="shared" ref="V8:V9" si="31">K8+U8+1</f>
         <v>44078</v>
       </c>
       <c r="W8" s="8">
@@ -3234,6 +3242,108 @@
 &amp;IF(LEN(T8)=0,"",","""&amp;T$1&amp;""":"""&amp;T8&amp;"""")
 &amp;","""&amp;U$1&amp;""":"&amp;U8&amp;"}")</f>
         <v>{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9" si="32">COUNTIF(A:A,A9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <f>YEAR(J9)</f>
+        <v>2021</v>
+      </c>
+      <c r="E9">
+        <f>MONTH(J9)</f>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>DAY(J9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>YEAR(K9+1)</f>
+        <v>2021</v>
+      </c>
+      <c r="H9">
+        <f>MONTH(K9+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f>DAY(K9+1)</f>
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44256</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44262</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ref="L9" ca="1" si="33">IF(ISBLANK(M9),"",
+VLOOKUP(M9,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" ref="P9" si="34">IF(A9&lt;&gt;"un","",
+INT((24*60+O9)/60))</f>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ref="Q9" si="35">IF(A9&lt;&gt;"un","",
+MOD(24*60+O9,60))</f>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" ref="R9" si="36">IF(A9&lt;&gt;"un","",
+K9+9/24+P9/24+Q9/24/60)</f>
+        <v/>
+      </c>
+      <c r="S9" s="8" t="str">
+        <f>"Mn_"&amp;A9</f>
+        <v>Mn_ti</v>
+      </c>
+      <c r="T9" s="8" t="str">
+        <f>"Md_"&amp;A9</f>
+        <v>Md_ti</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="31"/>
+        <v>44264</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="str">
+        <f ca="1">X8&amp;IF(LEN(Y9)=0,"",","&amp;Y9)</f>
+        <v>{"id":"un","sy":"2020","sm":"5","sd":"13","ey":"2020","em":"5","ed":"18","cn":-900,"ti":1},{"id":"ev","sy":"2020","sm":"5","sd":"28","ey":"2020","em":"6","ed":"4","tp":"be","vl":"1","cn":1,"nm":"Mn_ev","de":"Md_ev","ti":1},{"id":"up","sy":"2020","sm":"6","sd":"1","ey":"2020","em":"6","ed":"13","nm":"Mn_up","de":"Md_up","ti":1},{"id":"ny","sy":"2020","sm":"6","sd":"3","ey":"2020","em":"6","ed":"6","tp":"cu","vl":"DI","cn":3,"nm":"Mn_ny","de":"Md_ny","ti":3},{"id":"su","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"1","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su1","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"2","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"su2","sy":"2020","sm":"9","sd":"2","ey":"2020","em":"9","ed":"3","tp":"be","vl":"3","cn":1,"nm":"Mn_su","de":"Md_su","ti":1},{"id":"ti","sy":"2021","sm":"3","sd":"1","ey":"2021","em":"3","ed":"8","nm":"Mn_ti","de":"Md_ti","ti":1}</v>
+      </c>
+      <c r="Y9" t="str">
+        <f ca="1">IF(W9&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A9&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D9&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E9&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F9&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G9&amp;""""
+&amp;","""&amp;H$1&amp;""":"""&amp;H9&amp;""""
+&amp;","""&amp;I$1&amp;""":"""&amp;I9&amp;""""
+&amp;IF(LEN(L9)=0,"",","""&amp;L$1&amp;""":"""&amp;L9&amp;"""")
+&amp;IF(LEN(N9)=0,"",","""&amp;N$1&amp;""":"""&amp;N9&amp;"""")
+&amp;IF(LEN(O9)=0,"",","""&amp;O$1&amp;""":"&amp;O9)
+&amp;IF(LEN(S9)=0,"",","""&amp;S$1&amp;""":"""&amp;S9&amp;"""")
+&amp;IF(LEN(T9)=0,"",","""&amp;T$1&amp;""":"""&amp;T9&amp;"""")
+&amp;","""&amp;U$1&amp;""":"&amp;U9&amp;"}")</f>
+        <v>{"id":"ti","sy":"2021","sm":"3","sd":"1","ey":"2021","em":"3","ed":"8","nm":"Mn_ti","de":"Md_ti","ti":1}</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2F8B4-F612-466E-BE87-D206D0DE5323}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Mail.xlsx
+++ b/Excel/작업Mail.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ECCC0-01CC-4F9F-828D-DC2CF530C924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0975FCC-A422-4E86-9DC8-8ADE221A166A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FEBDDD54-94F1-45FC-8942-1CEB3C9600D8}"/>
   </bookViews>
   <sheets>
     <sheet name="mail서버" sheetId="1" r:id="rId1"/>
     <sheet name="down서버" sheetId="2" r:id="rId2"/>
+    <sheet name="lvRst서버" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1728,8 +1729,351 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7EED1D77-AC69-4782-B162-8214141B10AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다
+켜놓은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사람은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시에만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>판단하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{7769EAE3-E0E1-419D-98F1-A9EBE80F5B1F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타이틀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라에서는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아무</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일어나지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>tp</t>
   </si>
@@ -1958,6 +2302,18 @@
   </si>
   <si>
     <t>팀레벨팩 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvRst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀레벨팩초기화시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1968,7 +2324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ AM/PM\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2027,6 +2383,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2050,7 +2414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2082,6 +2446,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2400,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B29-675C-490E-8FE8-27B6926F873F}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -3364,7 +3731,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3532,4 +3899,97 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACAD454-F718-4352-A467-2428D22B6FF6}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>CHOOSE(WEEKDAY(C2),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")&amp;", "
+&amp;TEXT(C2,"dd mmm yyyy")&amp;" "
+&amp;TEXT(C2,"hh:mm:ss")&amp;" GMT"</f>
+        <v>Tue, 03 Nov 2020 00:00:00 GMT</v>
+      </c>
+      <c r="C2" s="9">
+        <f>D2+E2/24+F2/24/60</f>
+        <v>44138</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44138</v>
+      </c>
+      <c r="E2" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="str">
+        <f>IF(AND(E2=0,F2=0),"","시각은0시로만!")</f>
+        <v/>
+      </c>
+      <c r="H2" s="9">
+        <f>C2+9/24</f>
+        <v>44138.375</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f>B2</f>
+        <v>Tue, 03 Nov 2020 00:00:00 GMT</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>